--- a/biology/Zoologie/Coucou_à_collier/Coucou_à_collier.xlsx
+++ b/biology/Zoologie/Coucou_à_collier/Coucou_à_collier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Coucou_%C3%A0_collier</t>
+          <t>Coucou_à_collier</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Clamator coromandus
-Le Coucou à collier  (Clamator coromandus), également appelé coucou à ailes marron, coucou huppé de Coromandel, Jacobin huppé de Coromande[1], coucou de Coromandel ou coucou-geai de Coromandel, est une espèce d'oiseaux de la famille des Cuculidae.
+Le Coucou à collier  (Clamator coromandus), également appelé coucou à ailes marron, coucou huppé de Coromandel, Jacobin huppé de Coromande, coucou de Coromandel ou coucou-geai de Coromandel, est une espèce d'oiseaux de la famille des Cuculidae.
 C'est une espèce monotypique (non subdivisée en sous-espèces).
 </t>
         </is>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Coucou_%C3%A0_collier</t>
+          <t>Coucou_à_collier</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Son aire de nidification s'étend du nord de l'Inde à l'est de la Chine et l'Asie du Sud-Est continentale.
 </t>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Coucou_%C3%A0_collier</t>
+          <t>Coucou_à_collier</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le coucou à collier vit dans les forêts tropicales de feuillus jusqu'à 1600 m d'altitude mais on le trouve aussi dans les parcs et jardins des villes.
 </t>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Coucou_%C3%A0_collier</t>
+          <t>Coucou_à_collier</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,11 +591,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le coucou-geai de Coromandel mesure jusqu'à 45 cm de long.
 Mâle et femelle ont même plumage.
-Il vit en petits groupes de 3 ou 4 oiseaux ou en solitaire et n'est pas farouche[2].
+Il vit en petits groupes de 3 ou 4 oiseaux ou en solitaire et n'est pas farouche.
 </t>
         </is>
       </c>
@@ -590,7 +608,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Coucou_%C3%A0_collier</t>
+          <t>Coucou_à_collier</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -608,7 +626,9 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le coucou à collier est un insectivore.
 Il cherche dans les grands arbustes essentiellement des chenilles mais également des papillons, des coléoptères et bien d'autres insectes.
@@ -622,7 +642,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Coucou_%C3%A0_collier</t>
+          <t>Coucou_à_collier</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -640,7 +660,9 @@
           <t>Reproduction</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">La saison des amours a lieu en été.
 Ce coucou est un parasite dont la femelle pond ses œufs dans le nid d'autres espèces plus petites, en particulier des Timaliidés du genre Garrulax ou Turdoides dont le œufs sont du même bleu clair que les siens. C'est pourquoi ces oiseaux ne s'aperçoivent généralement pas de la substitution. Le jeune étranger est ensuite nourri et éduqué par les parents nourriciers.
